--- a/results/multiclass/23/automl.xlsx
+++ b/results/multiclass/23/automl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,10 +496,25 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_average_precision_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_loss</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>training_time</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>test_time</t>
         </is>
@@ -513,7 +528,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.566</t>
+          <t>0.546</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -523,32 +538,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.531</t>
+          <t>0.506</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.321</t>
+          <t>0.282</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.526</t>
+          <t>0.506</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.566</t>
+          <t>0.546</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.556</t>
+          <t>0.536</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.332</t>
+          <t>0.284</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -568,10 +583,25 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>00:00:11</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -585,7 +615,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.468</t>
+          <t>0.444</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -595,32 +625,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.425</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.422</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.444</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>0.443</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.173</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.443</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.468</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.466</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.175</t>
+          <t>0.143</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -640,10 +670,25 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>00:00:53</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -657,7 +702,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.586</t>
+          <t>0.580</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -667,32 +712,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.554</t>
+          <t>0.545</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.349</t>
+          <t>0.342</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.559</t>
+          <t>0.543</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.586</t>
+          <t>0.580</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.582</t>
+          <t>0.571</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.353</t>
+          <t>0.352</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -712,12 +757,27 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>00:10:12</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>00:00:13</t>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>00:11:20</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>00:01:42</t>
         </is>
       </c>
     </row>
@@ -729,7 +789,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.614</t>
+          <t>0.576</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -739,32 +799,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.581</t>
+          <t>0.551</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.395</t>
+          <t>0.343</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.582</t>
+          <t>0.552</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.614</t>
+          <t>0.576</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.607</t>
+          <t>0.575</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.404</t>
+          <t>0.350</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -784,10 +844,25 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>00:09:57</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>00:11:44</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>00:00:01</t>
         </is>
@@ -801,7 +876,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.603</t>
+          <t>0.593</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -811,32 +886,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.566</t>
+          <t>0.573</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.377</t>
+          <t>0.371</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.562</t>
+          <t>0.574</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.603</t>
+          <t>0.593</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.592</t>
+          <t>0.593</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.388</t>
+          <t>0.385</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -856,10 +931,25 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>00:10:03</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>00:10:01</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -873,7 +963,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.576</t>
+          <t>0.590</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -883,32 +973,32 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.547</t>
+          <t>0.572</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.341</t>
+          <t>0.371</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.544</t>
+          <t>0.571</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.576</t>
+          <t>0.590</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.569</t>
+          <t>0.591</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.356</t>
+          <t>0.389</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -928,10 +1018,25 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>00:09:59</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -945,7 +1050,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.607</t>
+          <t>0.614</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -955,32 +1060,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.581</t>
+          <t>0.591</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.388</t>
+          <t>0.400</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.584</t>
+          <t>0.594</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.607</t>
+          <t>0.614</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.605</t>
+          <t>0.613</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.396</t>
+          <t>0.407</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1000,10 +1105,25 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>00:08:59</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1017,7 +1137,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.444</t>
+          <t>0.437</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1027,32 +1147,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.340</t>
+          <t>0.331</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>-0.005</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.230</t>
+          <t>0.203</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.444</t>
+          <t>0.437</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.296</t>
+          <t>0.268</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>-0.041</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1072,10 +1192,25 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>00:10:02</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1089,7 +1224,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.447</t>
+          <t>0.427</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1099,32 +1234,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.421</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.167</t>
+          <t>0.153</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.373</t>
+          <t>0.380</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.447</t>
+          <t>0.427</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.414</t>
+          <t>0.418</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.180</t>
+          <t>0.166</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1144,10 +1279,25 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>00:00:51</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>00:00:45</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
@@ -1161,7 +1311,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.597</t>
+          <t>0.569</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1171,32 +1321,32 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.579</t>
+          <t>0.541</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.377</t>
+          <t>0.327</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.577</t>
+          <t>0.542</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.597</t>
+          <t>0.569</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.594</t>
+          <t>0.564</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.383</t>
+          <t>0.337</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1216,10 +1366,25 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>00:10:01</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>00:10:08</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>

--- a/results/multiclass/23/automl.xlsx
+++ b/results/multiclass/23/automl.xlsx
@@ -663,12 +663,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.601 (0.557 Â± 0.032)</t>
+          <t>0.613 (0.559 Â± 0.033)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:04:56 (00:06:08 Â± 00:03:33)</t>
+          <t>00:04:59 (00:06:27 Â± 00:02:14)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[5, 29]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -919,12 +919,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.619 (0.561 Â± 0.035)</t>
+          <t>0.619 (0.562 Â± 0.035)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:13:07 (00:13:36 Â± 00:00:29)</t>
+          <t>00:00:07 (00:00:08 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">

--- a/results/multiclass/23/automl.xlsx
+++ b/results/multiclass/23/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.552 (0.551 Â± 0.001)</t>
+          <t>0.552 (0.551 ± 0.001)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:01:36 (00:02:40 Â± 00:01:26)</t>
+          <t>00:01:36 (00:02:40 ± 00:01:26)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:07 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:07 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.615 (0.552 Â± 0.024)</t>
+          <t>0.615 (0.552 ± 0.024)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:14 (00:00:17 Â± 00:00:01)</t>
+          <t>00:00:14 (00:00:17 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.535 (0.466 Â± 0.037)</t>
+          <t>0.535 (0.466 ± 0.037)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:27 (00:00:36 Â± 00:00:12)</t>
+          <t>00:00:27 (00:00:36 ± 00:00:12)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.589 (0.529 Â± 0.029)</t>
+          <t>0.589 (0.529 ± 0.029)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:06 (00:05:13 Â± 00:00:04)</t>
+          <t>00:05:06 (00:05:13 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.631 (0.569 Â± 0.031)</t>
+          <t>0.631 (0.569 ± 0.031)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:00 Â± 00:00:02)</t>
+          <t>00:04:56 (00:05:00 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.611 (0.564 Â± 0.026)</t>
+          <t>0.611 (0.564 ± 0.026)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:01 (00:05:04 Â± 00:00:02)</t>
+          <t>00:05:01 (00:05:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.613 (0.559 Â± 0.033)</t>
+          <t>0.613 (0.559 ± 0.033)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:04:59 (00:06:27 Â± 00:02:14)</t>
+          <t>00:04:59 (00:06:27 ± 00:02:14)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -695,17 +695,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.604 (0.552 Â± 0.027)</t>
+          <t>0.604 (0.552 ± 0.027)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:04:59 (00:05:00 Â± 00:00:00)</t>
+          <t>00:04:59 (00:05:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.618 (0.568 Â± 0.029)</t>
+          <t>0.618 (0.568 ± 0.029)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.521 (0.348 Â± 0.095)</t>
+          <t>0.521 (0.348 ± 0.095)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:05 Â± 00:00:01)</t>
+          <t>00:05:00 (00:05:05 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.461 (0.415 Â± 0.029)</t>
+          <t>0.461 (0.415 ± 0.029)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:02:15 (00:03:00 Â± 00:00:55)</t>
+          <t>00:02:15 (00:03:00 ± 00:00:55)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -823,17 +823,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.591 (0.550 Â± 0.026)</t>
+          <t>0.591 (0.550 ± 0.026)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:01 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:01 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.618 (0.565 Â± 0.029)</t>
+          <t>0.618 (0.565 ± 0.029)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:23 (00:00:25 Â± 00:00:01)</t>
+          <t>00:00:23 (00:00:25 ± 00:00:01)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -887,17 +887,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.595 (0.564 Â± 0.037)</t>
+          <t>0.595 (0.564 ± 0.037)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:02:13 (00:04:13 Â± 00:01:09)</t>
+          <t>00:02:13 (00:04:13 ± 00:01:09)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.619 (0.562 Â± 0.035)</t>
+          <t>0.619 (0.562 ± 0.035)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:07 (00:00:08 Â± 00:00:00)</t>
+          <t>00:00:07 (00:00:08 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.613 (0.561 Â± 0.028)</t>
+          <t>0.613 (0.561 ± 0.028)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:14 Â± 00:00:17)</t>
+          <t>00:05:00 (00:05:14 ± 00:00:17)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
